--- a/docs/collections/medlib/metadata/data.xlsx
+++ b/docs/collections/medlib/metadata/data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1926">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1936">
   <si>
     <t>資料名</t>
   </si>
@@ -5504,6 +5504,9 @@
     <t>明治11年 (1878)</t>
   </si>
   <si>
+    <t>自明治九年十二月 至同十年十一月|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/8a908d81-5ef0-3c30-5808-886df022821f#?cv=3|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/8a908d81-5ef0-3c30-5808-886df022821f#?cv=4|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/8a908d81-5ef0-3c30-5808-886df022821f#?cv=5|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/8a908d81-5ef0-3c30-5808-886df022821f#?cv=7|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/8a908d81-5ef0-3c30-5808-886df022821f#?cv=8|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/8a908d81-5ef0-3c30-5808-886df022821f#?cv=36|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/8a908d81-5ef0-3c30-5808-886df022821f#?cv=36|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/8a908d81-5ef0-3c30-5808-886df022821f#?cv=37|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/8a908d81-5ef0-3c30-5808-886df022821f#?cv=38|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/8a908d81-5ef0-3c30-5808-886df022821f#?cv=39|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/8a908d81-5ef0-3c30-5808-886df022821f#?cv=55</t>
+  </si>
+  <si>
     <t>1冊 21cm</t>
   </si>
   <si>
@@ -5537,6 +5540,9 @@
     <t>明治12年 (1879)</t>
   </si>
   <si>
+    <t>自明治十年十二月 至同十一年十一月|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/4c8506b1-8f77-39f3-2643-6bbc98ba8790#?cv=3|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/4c8506b1-8f77-39f3-2643-6bbc98ba8790#?cv=4|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/4c8506b1-8f77-39f3-2643-6bbc98ba8790#?cv=6|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/4c8506b1-8f77-39f3-2643-6bbc98ba8790#?cv=8|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/4c8506b1-8f77-39f3-2643-6bbc98ba8790#?cv=9|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/4c8506b1-8f77-39f3-2643-6bbc98ba8790#?cv=30|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/4c8506b1-8f77-39f3-2643-6bbc98ba8790#?cv=30|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/4c8506b1-8f77-39f3-2643-6bbc98ba8790#?cv=31|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/4c8506b1-8f77-39f3-2643-6bbc98ba8790#?cv=32</t>
+  </si>
+  <si>
     <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/4c8506b1-8f77-39f3-2643-6bbc98ba8790.json</t>
   </si>
   <si>
@@ -5567,6 +5573,9 @@
     <t>明治13年 (1880)</t>
   </si>
   <si>
+    <t>自明治十一年十二月 至同十二年十一月|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/bb90a597-3912-6cd7-2753-a5ca192b05f8#?cv=3|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/bb90a597-3912-6cd7-2753-a5ca192b05f8#?cv=3|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/bb90a597-3912-6cd7-2753-a5ca192b05f8#?cv=5|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/bb90a597-3912-6cd7-2753-a5ca192b05f8#?cv=6|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/bb90a597-3912-6cd7-2753-a5ca192b05f8#?cv=7|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/bb90a597-3912-6cd7-2753-a5ca192b05f8#?cv=30|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/bb90a597-3912-6cd7-2753-a5ca192b05f8#?cv=89|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/bb90a597-3912-6cd7-2753-a5ca192b05f8#?cv=89|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/bb90a597-3912-6cd7-2753-a5ca192b05f8#?cv=90|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/bb90a597-3912-6cd7-2753-a5ca192b05f8#?cv=91</t>
+  </si>
+  <si>
     <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/bb90a597-3912-6cd7-2753-a5ca192b05f8.json</t>
   </si>
   <si>
@@ -5597,6 +5606,9 @@
     <t>明治14年 (1881)</t>
   </si>
   <si>
+    <t>自明治十二年十二月 至同十三年十一月|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/14dc3dfd-621f-164d-1daf-304e0448360c#?cv=3|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/14dc3dfd-621f-164d-1daf-304e0448360c#?cv=4|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/14dc3dfd-621f-164d-1daf-304e0448360c#?cv=6|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/14dc3dfd-621f-164d-1daf-304e0448360c#?cv=7|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/14dc3dfd-621f-164d-1daf-304e0448360c#?cv=9|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/14dc3dfd-621f-164d-1daf-304e0448360c#?cv=34|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/14dc3dfd-621f-164d-1daf-304e0448360c#?cv=85|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/14dc3dfd-621f-164d-1daf-304e0448360c#?cv=86|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/14dc3dfd-621f-164d-1daf-304e0448360c#?cv=87</t>
+  </si>
+  <si>
     <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/14dc3dfd-621f-164d-1daf-304e0448360c.json</t>
   </si>
   <si>
@@ -5630,6 +5642,9 @@
     <t>明治元-9年 (1868-1876)</t>
   </si>
   <si>
+    <t>医学校の明治元年から9年までの記録。|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/2768e7c9-4dda-7169-5c21-51f9fb5d60f6#?cv=2|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/2768e7c9-4dda-7169-5c21-51f9fb5d60f6#?cv=3|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/2768e7c9-4dda-7169-5c21-51f9fb5d60f6#?cv=7|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/2768e7c9-4dda-7169-5c21-51f9fb5d60f6#?cv=9|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/2768e7c9-4dda-7169-5c21-51f9fb5d60f6#?cv=13|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/2768e7c9-4dda-7169-5c21-51f9fb5d60f6#?cv=15|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/2768e7c9-4dda-7169-5c21-51f9fb5d60f6#?cv=19|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/2768e7c9-4dda-7169-5c21-51f9fb5d60f6#?cv=24|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/2768e7c9-4dda-7169-5c21-51f9fb5d60f6#?cv=33|*白紙頁は撮影していない</t>
+  </si>
+  <si>
     <t>1冊 24cm</t>
   </si>
   <si>
@@ -5666,6 +5681,9 @@
     <t>[明治10年 (1877)]</t>
   </si>
   <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/de6aeb4d-9de6-6411-2d82-8821672c0bd5#?cv=2|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/de6aeb4d-9de6-6411-2d82-8821672c0bd5#?cv=3|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/de6aeb4d-9de6-6411-2d82-8821672c0bd5#?cv=4|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/de6aeb4d-9de6-6411-2d82-8821672c0bd5#?cv=10|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/de6aeb4d-9de6-6411-2d82-8821672c0bd5#?cv=12|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/de6aeb4d-9de6-6411-2d82-8821672c0bd5#?cv=13|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/de6aeb4d-9de6-6411-2d82-8821672c0bd5#?cv=14|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/de6aeb4d-9de6-6411-2d82-8821672c0bd5#?cv=14|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/de6aeb4d-9de6-6411-2d82-8821672c0bd5#?cv=15|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/de6aeb4d-9de6-6411-2d82-8821672c0bd5#?cv=16|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/de6aeb4d-9de6-6411-2d82-8821672c0bd5#?cv=17|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/de6aeb4d-9de6-6411-2d82-8821672c0bd5#?cv=17|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/de6aeb4d-9de6-6411-2d82-8821672c0bd5#?cv=18|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/de6aeb4d-9de6-6411-2d82-8821672c0bd5#?cv=19|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/de6aeb4d-9de6-6411-2d82-8821672c0bd5#?cv=20|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/de6aeb4d-9de6-6411-2d82-8821672c0bd5#?cv=21|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/de6aeb4d-9de6-6411-2d82-8821672c0bd5#?cv=23|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/de6aeb4d-9de6-6411-2d82-8821672c0bd5#?cv=24|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/de6aeb4d-9de6-6411-2d82-8821672c0bd5#?cv=24|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/de6aeb4d-9de6-6411-2d82-8821672c0bd5#?cv=26|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/de6aeb4d-9de6-6411-2d82-8821672c0bd5#?cv=29|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/de6aeb4d-9de6-6411-2d82-8821672c0bd5#?cv=29|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/de6aeb4d-9de6-6411-2d82-8821672c0bd5#?cv=29|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/de6aeb4d-9de6-6411-2d82-8821672c0bd5#?cv=31|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/de6aeb4d-9de6-6411-2d82-8821672c0bd5#?cv=32|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/de6aeb4d-9de6-6411-2d82-8821672c0bd5#?cv=33|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/de6aeb4d-9de6-6411-2d82-8821672c0bd5#?cv=45</t>
+  </si>
+  <si>
     <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/de6aeb4d-9de6-6411-2d82-8821672c0bd5.json</t>
   </si>
   <si>
@@ -5693,6 +5711,9 @@
     <t>[明治13年 (1880)]</t>
   </si>
   <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/eac90c10-0506-9f9b-0f22-f2460b201cc8#?cv=2|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/eac90c10-0506-9f9b-0f22-f2460b201cc8#?cv=4|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/eac90c10-0506-9f9b-0f22-f2460b201cc8#?cv=5|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/eac90c10-0506-9f9b-0f22-f2460b201cc8#?cv=5|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/eac90c10-0506-9f9b-0f22-f2460b201cc8#?cv=7|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/eac90c10-0506-9f9b-0f22-f2460b201cc8#?cv=8|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/eac90c10-0506-9f9b-0f22-f2460b201cc8#?cv=9|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/eac90c10-0506-9f9b-0f22-f2460b201cc8#?cv=10|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/eac90c10-0506-9f9b-0f22-f2460b201cc8#?cv=11|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/eac90c10-0506-9f9b-0f22-f2460b201cc8#?cv=12|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/eac90c10-0506-9f9b-0f22-f2460b201cc8#?cv=16|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/eac90c10-0506-9f9b-0f22-f2460b201cc8#?cv=17|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/eac90c10-0506-9f9b-0f22-f2460b201cc8#?cv=21|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/eac90c10-0506-9f9b-0f22-f2460b201cc8#?cv=23|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/eac90c10-0506-9f9b-0f22-f2460b201cc8#?cv=28|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/eac90c10-0506-9f9b-0f22-f2460b201cc8#?cv=43|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/eac90c10-0506-9f9b-0f22-f2460b201cc8#?cv=43|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/eac90c10-0506-9f9b-0f22-f2460b201cc8#?cv=44|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/eac90c10-0506-9f9b-0f22-f2460b201cc8#?cv=46|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/eac90c10-0506-9f9b-0f22-f2460b201cc8#?cv=66|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/eac90c10-0506-9f9b-0f22-f2460b201cc8#?cv=69|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/eac90c10-0506-9f9b-0f22-f2460b201cc8#?cv=70|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/eac90c10-0506-9f9b-0f22-f2460b201cc8#?cv=71|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/eac90c10-0506-9f9b-0f22-f2460b201cc8#?cv=74|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/eac90c10-0506-9f9b-0f22-f2460b201cc8#?cv=82|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/eac90c10-0506-9f9b-0f22-f2460b201cc8#?cv=88|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/eac90c10-0506-9f9b-0f22-f2460b201cc8#?cv=94|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/eac90c10-0506-9f9b-0f22-f2460b201cc8#?cv=97|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/eac90c10-0506-9f9b-0f22-f2460b201cc8#?cv=101|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/eac90c10-0506-9f9b-0f22-f2460b201cc8#?cv=133|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/eac90c10-0506-9f9b-0f22-f2460b201cc8#?cv=139|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/eac90c10-0506-9f9b-0f22-f2460b201cc8#?cv=140|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/eac90c10-0506-9f9b-0f22-f2460b201cc8#?cv=141|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/eac90c10-0506-9f9b-0f22-f2460b201cc8#?cv=154</t>
+  </si>
+  <si>
     <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/eac90c10-0506-9f9b-0f22-f2460b201cc8.json</t>
   </si>
   <si>
@@ -5720,6 +5741,9 @@
     <t>[明治14年 (1881)]</t>
   </si>
   <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/4d6fe455-003d-2550-3e2b-4dab29dd504c#?cv=3|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/4d6fe455-003d-2550-3e2b-4dab29dd504c#?cv=4|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/4d6fe455-003d-2550-3e2b-4dab29dd504c#?cv=7|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/4d6fe455-003d-2550-3e2b-4dab29dd504c#?cv=8|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/4d6fe455-003d-2550-3e2b-4dab29dd504c#?cv=8|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/4d6fe455-003d-2550-3e2b-4dab29dd504c#?cv=10|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/4d6fe455-003d-2550-3e2b-4dab29dd504c#?cv=25|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/4d6fe455-003d-2550-3e2b-4dab29dd504c#?cv=26|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/4d6fe455-003d-2550-3e2b-4dab29dd504c#?cv=29|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/4d6fe455-003d-2550-3e2b-4dab29dd504c#?cv=44|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/4d6fe455-003d-2550-3e2b-4dab29dd504c#?cv=45|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/4d6fe455-003d-2550-3e2b-4dab29dd504c#?cv=46|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/4d6fe455-003d-2550-3e2b-4dab29dd504c#?cv=46|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/4d6fe455-003d-2550-3e2b-4dab29dd504c#?cv=53|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/4d6fe455-003d-2550-3e2b-4dab29dd504c#?cv=56|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/4d6fe455-003d-2550-3e2b-4dab29dd504c#?cv=57|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/4d6fe455-003d-2550-3e2b-4dab29dd504c#?cv=62|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/4d6fe455-003d-2550-3e2b-4dab29dd504c#?cv=67|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/4d6fe455-003d-2550-3e2b-4dab29dd504c#?cv=69|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/4d6fe455-003d-2550-3e2b-4dab29dd504c#?cv=74|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/4d6fe455-003d-2550-3e2b-4dab29dd504c#?cv=80|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/4d6fe455-003d-2550-3e2b-4dab29dd504c#?cv=84|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/4d6fe455-003d-2550-3e2b-4dab29dd504c#?cv=114|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/4d6fe455-003d-2550-3e2b-4dab29dd504c#?cv=118|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/4d6fe455-003d-2550-3e2b-4dab29dd504c#?cv=128</t>
+  </si>
+  <si>
     <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/4d6fe455-003d-2550-3e2b-4dab29dd504c.json</t>
   </si>
   <si>
@@ -5747,6 +5771,9 @@
     <t>[明治15年 (1882)]</t>
   </si>
   <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/3a03bdb6-8007-6e53-8506-3dc544c93775#?cv=2|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/3a03bdb6-8007-6e53-8506-3dc544c93775#?cv=3|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/3a03bdb6-8007-6e53-8506-3dc544c93775#?cv=7|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/3a03bdb6-8007-6e53-8506-3dc544c93775#?cv=8|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/3a03bdb6-8007-6e53-8506-3dc544c93775#?cv=8|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/3a03bdb6-8007-6e53-8506-3dc544c93775#?cv=10|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/3a03bdb6-8007-6e53-8506-3dc544c93775#?cv=25|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/3a03bdb6-8007-6e53-8506-3dc544c93775#?cv=26|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/3a03bdb6-8007-6e53-8506-3dc544c93775#?cv=28|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/3a03bdb6-8007-6e53-8506-3dc544c93775#?cv=44|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/3a03bdb6-8007-6e53-8506-3dc544c93775#?cv=44|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/3a03bdb6-8007-6e53-8506-3dc544c93775#?cv=47|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/3a03bdb6-8007-6e53-8506-3dc544c93775#?cv=48|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/3a03bdb6-8007-6e53-8506-3dc544c93775#?cv=48|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/3a03bdb6-8007-6e53-8506-3dc544c93775#?cv=55|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/3a03bdb6-8007-6e53-8506-3dc544c93775#?cv=58|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/3a03bdb6-8007-6e53-8506-3dc544c93775#?cv=59|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/3a03bdb6-8007-6e53-8506-3dc544c93775#?cv=60|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/3a03bdb6-8007-6e53-8506-3dc544c93775#?cv=63|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/3a03bdb6-8007-6e53-8506-3dc544c93775#?cv=65|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/3a03bdb6-8007-6e53-8506-3dc544c93775#?cv=72|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/3a03bdb6-8007-6e53-8506-3dc544c93775#?cv=75|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/3a03bdb6-8007-6e53-8506-3dc544c93775#?cv=96|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/3a03bdb6-8007-6e53-8506-3dc544c93775#?cv=101|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/3a03bdb6-8007-6e53-8506-3dc544c93775#?cv=114</t>
+  </si>
+  <si>
     <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/3a03bdb6-8007-6e53-8506-3dc544c93775.json</t>
   </si>
   <si>
@@ -5772,6 +5799,9 @@
   </si>
   <si>
     <t>[明治16年 (1883)]</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/4ce5a99d-6d90-12dd-36a4-e5176deb6137#?cv=2|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/4ce5a99d-6d90-12dd-36a4-e5176deb6137#?cv=4|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/4ce5a99d-6d90-12dd-36a4-e5176deb6137#?cv=9|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/4ce5a99d-6d90-12dd-36a4-e5176deb6137#?cv=10|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/4ce5a99d-6d90-12dd-36a4-e5176deb6137#?cv=11|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/4ce5a99d-6d90-12dd-36a4-e5176deb6137#?cv=18|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/4ce5a99d-6d90-12dd-36a4-e5176deb6137#?cv=54|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/4ce5a99d-6d90-12dd-36a4-e5176deb6137#?cv=55|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/4ce5a99d-6d90-12dd-36a4-e5176deb6137#?cv=60|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/4ce5a99d-6d90-12dd-36a4-e5176deb6137#?cv=73|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/4ce5a99d-6d90-12dd-36a4-e5176deb6137#?cv=73|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/4ce5a99d-6d90-12dd-36a4-e5176deb6137#?cv=75|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/4ce5a99d-6d90-12dd-36a4-e5176deb6137#?cv=76|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/4ce5a99d-6d90-12dd-36a4-e5176deb6137#?cv=77|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/4ce5a99d-6d90-12dd-36a4-e5176deb6137#?cv=84|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/4ce5a99d-6d90-12dd-36a4-e5176deb6137#?cv=87|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/4ce5a99d-6d90-12dd-36a4-e5176deb6137#?cv=89|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/4ce5a99d-6d90-12dd-36a4-e5176deb6137#?cv=89|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/4ce5a99d-6d90-12dd-36a4-e5176deb6137#?cv=92|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/4ce5a99d-6d90-12dd-36a4-e5176deb6137#?cv=99|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/4ce5a99d-6d90-12dd-36a4-e5176deb6137#?cv=103|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/4ce5a99d-6d90-12dd-36a4-e5176deb6137#?cv=123|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/4ce5a99d-6d90-12dd-36a4-e5176deb6137#?cv=130|https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/medlib/document/4ce5a99d-6d90-12dd-36a4-e5176deb6137#?cv=141</t>
   </si>
   <si>
     <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/4ce5a99d-6d90-12dd-36a4-e5176deb6137.json</t>
@@ -18881,31 +18911,33 @@
       <c r="G176" t="s">
         <v>1828</v>
       </c>
-      <c r="H176" t="s"/>
+      <c r="H176" t="s">
+        <v>1829</v>
+      </c>
       <c r="I176" t="s"/>
       <c r="J176" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="K176" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="L176" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="M176" t="s">
         <v>66</v>
       </c>
       <c r="N176" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="O176" t="s">
         <v>68</v>
       </c>
       <c r="P176" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="Q176" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="R176" t="s">
         <v>71</v>
@@ -18918,11 +18950,11 @@
         <v>73</v>
       </c>
       <c r="V176" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="W176" t="s"/>
       <c r="X176" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="Y176" t="s"/>
       <c r="Z176" t="s"/>
@@ -18934,10 +18966,10 @@
     </row>
     <row r="177" spans="1:29">
       <c r="A177" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="B177" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="C177" t="s">
         <v>1611</v>
@@ -18948,33 +18980,35 @@
       <c r="E177" t="s"/>
       <c r="F177" t="s"/>
       <c r="G177" t="s">
-        <v>1839</v>
-      </c>
-      <c r="H177" t="s"/>
+        <v>1840</v>
+      </c>
+      <c r="H177" t="s">
+        <v>1841</v>
+      </c>
       <c r="I177" t="s"/>
       <c r="J177" t="s">
         <v>855</v>
       </c>
       <c r="K177" t="s">
-        <v>1840</v>
+        <v>1842</v>
       </c>
       <c r="L177" t="s">
-        <v>1841</v>
+        <v>1843</v>
       </c>
       <c r="M177" t="s">
         <v>66</v>
       </c>
       <c r="N177" t="s">
-        <v>1842</v>
+        <v>1844</v>
       </c>
       <c r="O177" t="s">
         <v>68</v>
       </c>
       <c r="P177" t="s">
-        <v>1843</v>
+        <v>1845</v>
       </c>
       <c r="Q177" t="s">
-        <v>1844</v>
+        <v>1846</v>
       </c>
       <c r="R177" t="s">
         <v>71</v>
@@ -18987,11 +19021,11 @@
         <v>73</v>
       </c>
       <c r="V177" t="s">
-        <v>1845</v>
+        <v>1847</v>
       </c>
       <c r="W177" t="s"/>
       <c r="X177" t="s">
-        <v>1846</v>
+        <v>1848</v>
       </c>
       <c r="Y177" t="s"/>
       <c r="Z177" t="s"/>
@@ -19003,10 +19037,10 @@
     </row>
     <row r="178" spans="1:29">
       <c r="A178" t="s">
-        <v>1847</v>
+        <v>1849</v>
       </c>
       <c r="B178" t="s">
-        <v>1848</v>
+        <v>1850</v>
       </c>
       <c r="C178" t="s">
         <v>1611</v>
@@ -19017,33 +19051,35 @@
       <c r="E178" t="s"/>
       <c r="F178" t="s"/>
       <c r="G178" t="s">
-        <v>1849</v>
-      </c>
-      <c r="H178" t="s"/>
+        <v>1851</v>
+      </c>
+      <c r="H178" t="s">
+        <v>1852</v>
+      </c>
       <c r="I178" t="s"/>
       <c r="J178" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="K178" t="s">
-        <v>1850</v>
+        <v>1853</v>
       </c>
       <c r="L178" t="s">
-        <v>1851</v>
+        <v>1854</v>
       </c>
       <c r="M178" t="s">
         <v>66</v>
       </c>
       <c r="N178" t="s">
-        <v>1852</v>
+        <v>1855</v>
       </c>
       <c r="O178" t="s">
         <v>68</v>
       </c>
       <c r="P178" t="s">
-        <v>1853</v>
+        <v>1856</v>
       </c>
       <c r="Q178" t="s">
-        <v>1854</v>
+        <v>1857</v>
       </c>
       <c r="R178" t="s">
         <v>71</v>
@@ -19056,11 +19092,11 @@
         <v>73</v>
       </c>
       <c r="V178" t="s">
-        <v>1855</v>
+        <v>1858</v>
       </c>
       <c r="W178" t="s"/>
       <c r="X178" t="s">
-        <v>1856</v>
+        <v>1859</v>
       </c>
       <c r="Y178" t="s"/>
       <c r="Z178" t="s"/>
@@ -19072,10 +19108,10 @@
     </row>
     <row r="179" spans="1:29">
       <c r="A179" t="s">
-        <v>1857</v>
+        <v>1860</v>
       </c>
       <c r="B179" t="s">
-        <v>1858</v>
+        <v>1861</v>
       </c>
       <c r="C179" t="s">
         <v>1611</v>
@@ -19086,33 +19122,35 @@
       <c r="E179" t="s"/>
       <c r="F179" t="s"/>
       <c r="G179" t="s">
-        <v>1859</v>
-      </c>
-      <c r="H179" t="s"/>
+        <v>1862</v>
+      </c>
+      <c r="H179" t="s">
+        <v>1863</v>
+      </c>
       <c r="I179" t="s"/>
       <c r="J179" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="K179" t="s">
-        <v>1860</v>
+        <v>1864</v>
       </c>
       <c r="L179" t="s">
-        <v>1861</v>
+        <v>1865</v>
       </c>
       <c r="M179" t="s">
         <v>66</v>
       </c>
       <c r="N179" t="s">
-        <v>1862</v>
+        <v>1866</v>
       </c>
       <c r="O179" t="s">
         <v>68</v>
       </c>
       <c r="P179" t="s">
-        <v>1863</v>
+        <v>1867</v>
       </c>
       <c r="Q179" t="s">
-        <v>1864</v>
+        <v>1868</v>
       </c>
       <c r="R179" t="s">
         <v>71</v>
@@ -19125,11 +19163,11 @@
         <v>73</v>
       </c>
       <c r="V179" t="s">
-        <v>1865</v>
+        <v>1869</v>
       </c>
       <c r="W179" t="s"/>
       <c r="X179" t="s">
-        <v>1866</v>
+        <v>1870</v>
       </c>
       <c r="Y179" t="s"/>
       <c r="Z179" t="s"/>
@@ -19141,10 +19179,10 @@
     </row>
     <row r="180" spans="1:29">
       <c r="A180" t="s">
-        <v>1867</v>
+        <v>1871</v>
       </c>
       <c r="B180" t="s">
-        <v>1868</v>
+        <v>1872</v>
       </c>
       <c r="C180" t="s">
         <v>1611</v>
@@ -19153,37 +19191,39 @@
         <v>59</v>
       </c>
       <c r="E180" t="s">
-        <v>1869</v>
+        <v>1873</v>
       </c>
       <c r="F180" t="s"/>
       <c r="G180" t="s">
-        <v>1870</v>
-      </c>
-      <c r="H180" t="s"/>
+        <v>1874</v>
+      </c>
+      <c r="H180" t="s">
+        <v>1875</v>
+      </c>
       <c r="I180" t="s"/>
       <c r="J180" t="s">
-        <v>1871</v>
+        <v>1876</v>
       </c>
       <c r="K180" t="s">
-        <v>1872</v>
+        <v>1877</v>
       </c>
       <c r="L180" t="s">
-        <v>1873</v>
+        <v>1878</v>
       </c>
       <c r="M180" t="s">
         <v>66</v>
       </c>
       <c r="N180" t="s">
-        <v>1874</v>
+        <v>1879</v>
       </c>
       <c r="O180" t="s">
         <v>68</v>
       </c>
       <c r="P180" t="s">
-        <v>1875</v>
+        <v>1880</v>
       </c>
       <c r="Q180" t="s">
-        <v>1876</v>
+        <v>1881</v>
       </c>
       <c r="R180" t="s">
         <v>71</v>
@@ -19196,11 +19236,11 @@
         <v>73</v>
       </c>
       <c r="V180" t="s">
-        <v>1877</v>
+        <v>1882</v>
       </c>
       <c r="W180" t="s"/>
       <c r="X180" t="s">
-        <v>1878</v>
+        <v>1883</v>
       </c>
       <c r="Y180" t="s"/>
       <c r="Z180" t="s"/>
@@ -19212,10 +19252,10 @@
     </row>
     <row r="181" spans="1:29">
       <c r="A181" t="s">
-        <v>1879</v>
+        <v>1884</v>
       </c>
       <c r="B181" t="s">
-        <v>1880</v>
+        <v>1885</v>
       </c>
       <c r="C181" t="s">
         <v>1611</v>
@@ -19224,37 +19264,39 @@
         <v>59</v>
       </c>
       <c r="E181" t="s">
-        <v>1881</v>
+        <v>1886</v>
       </c>
       <c r="F181" t="s"/>
       <c r="G181" t="s">
-        <v>1882</v>
-      </c>
-      <c r="H181" t="s"/>
+        <v>1887</v>
+      </c>
+      <c r="H181" t="s">
+        <v>1888</v>
+      </c>
       <c r="I181" t="s"/>
       <c r="J181" t="s">
         <v>855</v>
       </c>
       <c r="K181" t="s">
-        <v>1883</v>
+        <v>1889</v>
       </c>
       <c r="L181" t="s">
-        <v>1884</v>
+        <v>1890</v>
       </c>
       <c r="M181" t="s">
         <v>66</v>
       </c>
       <c r="N181" t="s">
-        <v>1885</v>
+        <v>1891</v>
       </c>
       <c r="O181" t="s">
         <v>68</v>
       </c>
       <c r="P181" t="s">
-        <v>1886</v>
+        <v>1892</v>
       </c>
       <c r="Q181" t="s">
-        <v>1887</v>
+        <v>1893</v>
       </c>
       <c r="R181" t="s">
         <v>71</v>
@@ -19267,11 +19309,11 @@
         <v>73</v>
       </c>
       <c r="V181" t="s">
-        <v>1888</v>
+        <v>1894</v>
       </c>
       <c r="W181" t="s"/>
       <c r="X181" t="s">
-        <v>1889</v>
+        <v>1895</v>
       </c>
       <c r="Y181" t="s"/>
       <c r="Z181" t="s"/>
@@ -19283,10 +19325,10 @@
     </row>
     <row r="182" spans="1:29">
       <c r="A182" t="s">
-        <v>1890</v>
+        <v>1896</v>
       </c>
       <c r="B182" t="s">
-        <v>1880</v>
+        <v>1885</v>
       </c>
       <c r="C182" t="s">
         <v>1611</v>
@@ -19295,37 +19337,39 @@
         <v>59</v>
       </c>
       <c r="E182" t="s">
-        <v>1881</v>
+        <v>1886</v>
       </c>
       <c r="F182" t="s"/>
       <c r="G182" t="s">
-        <v>1891</v>
-      </c>
-      <c r="H182" t="s"/>
+        <v>1897</v>
+      </c>
+      <c r="H182" t="s">
+        <v>1898</v>
+      </c>
       <c r="I182" t="s"/>
       <c r="J182" t="s">
         <v>855</v>
       </c>
       <c r="K182" t="s">
-        <v>1892</v>
+        <v>1899</v>
       </c>
       <c r="L182" t="s">
-        <v>1893</v>
+        <v>1900</v>
       </c>
       <c r="M182" t="s">
         <v>66</v>
       </c>
       <c r="N182" t="s">
-        <v>1894</v>
+        <v>1901</v>
       </c>
       <c r="O182" t="s">
         <v>68</v>
       </c>
       <c r="P182" t="s">
-        <v>1895</v>
+        <v>1902</v>
       </c>
       <c r="Q182" t="s">
-        <v>1896</v>
+        <v>1903</v>
       </c>
       <c r="R182" t="s">
         <v>71</v>
@@ -19338,11 +19382,11 @@
         <v>73</v>
       </c>
       <c r="V182" t="s">
-        <v>1897</v>
+        <v>1904</v>
       </c>
       <c r="W182" t="s"/>
       <c r="X182" t="s">
-        <v>1898</v>
+        <v>1905</v>
       </c>
       <c r="Y182" t="s"/>
       <c r="Z182" t="s"/>
@@ -19354,10 +19398,10 @@
     </row>
     <row r="183" spans="1:29">
       <c r="A183" t="s">
-        <v>1899</v>
+        <v>1906</v>
       </c>
       <c r="B183" t="s">
-        <v>1880</v>
+        <v>1885</v>
       </c>
       <c r="C183" t="s">
         <v>1611</v>
@@ -19366,37 +19410,39 @@
         <v>59</v>
       </c>
       <c r="E183" t="s">
-        <v>1881</v>
+        <v>1886</v>
       </c>
       <c r="F183" t="s"/>
       <c r="G183" t="s">
-        <v>1900</v>
-      </c>
-      <c r="H183" t="s"/>
+        <v>1907</v>
+      </c>
+      <c r="H183" t="s">
+        <v>1908</v>
+      </c>
       <c r="I183" t="s"/>
       <c r="J183" t="s">
         <v>855</v>
       </c>
       <c r="K183" t="s">
-        <v>1901</v>
+        <v>1909</v>
       </c>
       <c r="L183" t="s">
-        <v>1902</v>
+        <v>1910</v>
       </c>
       <c r="M183" t="s">
         <v>66</v>
       </c>
       <c r="N183" t="s">
-        <v>1903</v>
+        <v>1911</v>
       </c>
       <c r="O183" t="s">
         <v>68</v>
       </c>
       <c r="P183" t="s">
-        <v>1904</v>
+        <v>1912</v>
       </c>
       <c r="Q183" t="s">
-        <v>1905</v>
+        <v>1913</v>
       </c>
       <c r="R183" t="s">
         <v>71</v>
@@ -19409,11 +19455,11 @@
         <v>73</v>
       </c>
       <c r="V183" t="s">
-        <v>1906</v>
+        <v>1914</v>
       </c>
       <c r="W183" t="s"/>
       <c r="X183" t="s">
-        <v>1907</v>
+        <v>1915</v>
       </c>
       <c r="Y183" t="s"/>
       <c r="Z183" t="s"/>
@@ -19425,10 +19471,10 @@
     </row>
     <row r="184" spans="1:29">
       <c r="A184" t="s">
-        <v>1908</v>
+        <v>1916</v>
       </c>
       <c r="B184" t="s">
-        <v>1880</v>
+        <v>1885</v>
       </c>
       <c r="C184" t="s">
         <v>1611</v>
@@ -19437,37 +19483,39 @@
         <v>59</v>
       </c>
       <c r="E184" t="s">
-        <v>1881</v>
+        <v>1886</v>
       </c>
       <c r="F184" t="s"/>
       <c r="G184" t="s">
-        <v>1909</v>
-      </c>
-      <c r="H184" t="s"/>
+        <v>1917</v>
+      </c>
+      <c r="H184" t="s">
+        <v>1918</v>
+      </c>
       <c r="I184" t="s"/>
       <c r="J184" t="s">
         <v>855</v>
       </c>
       <c r="K184" t="s">
-        <v>1910</v>
+        <v>1919</v>
       </c>
       <c r="L184" t="s">
-        <v>1911</v>
+        <v>1920</v>
       </c>
       <c r="M184" t="s">
         <v>66</v>
       </c>
       <c r="N184" t="s">
-        <v>1912</v>
+        <v>1921</v>
       </c>
       <c r="O184" t="s">
         <v>68</v>
       </c>
       <c r="P184" t="s">
-        <v>1913</v>
+        <v>1922</v>
       </c>
       <c r="Q184" t="s">
-        <v>1914</v>
+        <v>1923</v>
       </c>
       <c r="R184" t="s">
         <v>71</v>
@@ -19480,11 +19528,11 @@
         <v>73</v>
       </c>
       <c r="V184" t="s">
-        <v>1915</v>
+        <v>1924</v>
       </c>
       <c r="W184" t="s"/>
       <c r="X184" t="s">
-        <v>1916</v>
+        <v>1925</v>
       </c>
       <c r="Y184" t="s"/>
       <c r="Z184" t="s"/>
@@ -19496,10 +19544,10 @@
     </row>
     <row r="185" spans="1:29">
       <c r="A185" t="s">
-        <v>1917</v>
+        <v>1926</v>
       </c>
       <c r="B185" t="s">
-        <v>1880</v>
+        <v>1885</v>
       </c>
       <c r="C185" t="s">
         <v>1611</v>
@@ -19508,37 +19556,39 @@
         <v>59</v>
       </c>
       <c r="E185" t="s">
-        <v>1881</v>
+        <v>1886</v>
       </c>
       <c r="F185" t="s"/>
       <c r="G185" t="s">
-        <v>1918</v>
-      </c>
-      <c r="H185" t="s"/>
+        <v>1927</v>
+      </c>
+      <c r="H185" t="s">
+        <v>1928</v>
+      </c>
       <c r="I185" t="s"/>
       <c r="J185" t="s">
         <v>855</v>
       </c>
       <c r="K185" t="s">
-        <v>1919</v>
+        <v>1929</v>
       </c>
       <c r="L185" t="s">
-        <v>1920</v>
+        <v>1930</v>
       </c>
       <c r="M185" t="s">
         <v>66</v>
       </c>
       <c r="N185" t="s">
-        <v>1921</v>
+        <v>1931</v>
       </c>
       <c r="O185" t="s">
         <v>68</v>
       </c>
       <c r="P185" t="s">
-        <v>1922</v>
+        <v>1932</v>
       </c>
       <c r="Q185" t="s">
-        <v>1923</v>
+        <v>1933</v>
       </c>
       <c r="R185" t="s">
         <v>71</v>
@@ -19551,11 +19601,11 @@
         <v>73</v>
       </c>
       <c r="V185" t="s">
-        <v>1924</v>
+        <v>1934</v>
       </c>
       <c r="W185" t="s"/>
       <c r="X185" t="s">
-        <v>1925</v>
+        <v>1935</v>
       </c>
       <c r="Y185" t="s"/>
       <c r="Z185" t="s"/>
